--- a/P4_CreateReportDB/top_employee_category_count.xlsx
+++ b/P4_CreateReportDB/top_employee_category_count.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\become-business-analyst\P4_CreateReportDB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11490D2-FEA9-4B1C-83A2-F7095AC8FC4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="top_employee_category_count" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -55,8 +49,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,24 +642,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -680,15 +674,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -705,18 +699,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -750,7 +734,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -758,34 +742,7 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -806,7 +763,6 @@
           </c:tx>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -845,7 +801,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-D44F-42BC-B347-6B85D2CE1E0C}"/>
               </c:ext>
@@ -853,7 +809,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -892,7 +847,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-D44F-42BC-B347-6B85D2CE1E0C}"/>
               </c:ext>
@@ -900,7 +855,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -939,7 +893,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-D44F-42BC-B347-6B85D2CE1E0C}"/>
               </c:ext>
@@ -947,7 +901,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -986,7 +939,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-D44F-42BC-B347-6B85D2CE1E0C}"/>
               </c:ext>
@@ -994,7 +947,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1033,7 +985,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-D44F-42BC-B347-6B85D2CE1E0C}"/>
               </c:ext>
@@ -1041,7 +993,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1080,7 +1031,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-D44F-42BC-B347-6B85D2CE1E0C}"/>
               </c:ext>
@@ -1088,7 +1039,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1130,7 +1080,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000D-D44F-42BC-B347-6B85D2CE1E0C}"/>
               </c:ext>
@@ -1138,7 +1088,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -1180,7 +1129,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000F-D44F-42BC-B347-6B85D2CE1E0C}"/>
               </c:ext>
@@ -1216,12 +1165,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
@@ -1236,7 +1180,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -1305,21 +1249,14 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-306D-4738-B4BA-68AA75246A04}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
           <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
@@ -1333,7 +1270,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1362,8 +1299,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
+    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -1401,6 +1337,143 @@
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" algn="tr" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>业绩最好的雇员销售哪些种类产品</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>top_employee_category_count!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ProductNum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>top_employee_category_count!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Beverages</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Confections</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Seafood</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dairy Products</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Grains/Cereals</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Condiments</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Meat/Poultry</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Produce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>top_employee_category_count!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showCatName val="1"/>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1949,23 +2022,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>185736</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>547686</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85622782-57AD-4A8D-8ED5-3BE79404DCDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85622782-57AD-4A8D-8ED5-3BE79404DCDE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1978,6 +2051,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2029,7 +2132,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2081,7 +2184,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2275,23 +2378,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2299,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2307,7 +2410,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2315,7 +2418,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2323,7 +2426,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2331,7 +2434,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2339,7 +2442,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2347,7 +2450,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2355,7 +2458,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>

--- a/P4_CreateReportDB/top_employee_category_count.xlsx
+++ b/P4_CreateReportDB/top_employee_category_count.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\become-business-analyst\P4_CreateReportDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A81AB283-34FD-440D-BB8F-9C34EC9B921C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11490D2-FEA9-4B1C-83A2-F7095AC8FC4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="top_employee_category_count" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>CategoryName</t>
   </si>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -724,42 +724,29 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:sysClr>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" b="1">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="zh-CN"/>
               <a:t>业绩最好的雇员销售哪些种类产品</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US" b="0">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -775,28 +762,20 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:sysClr>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -829,184 +808,391 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D44F-42BC-B347-6B85D2CE1E0C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D44F-42BC-B347-6B85D2CE1E0C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D44F-42BC-B347-6B85D2CE1E0C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D44F-42BC-B347-6B85D2CE1E0C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-D44F-42BC-B347-6B85D2CE1E0C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-D44F-42BC-B347-6B85D2CE1E0C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-D44F-42BC-B347-6B85D2CE1E0C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-D44F-42BC-B347-6B85D2CE1E0C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
-              <a:pattFill prst="pct75">
-                <a:fgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:bgClr>
-              </a:pattFill>
+              <a:noFill/>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -1015,9 +1201,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1039,9 +1227,9 @@
               <c:spPr>
                 <a:ln w="9525">
                   <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
                     </a:schemeClr>
                   </a:solidFill>
                 </a:ln>
@@ -1144,15 +1332,10 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="39000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1165,9 +1348,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1187,30 +1369,25 @@
     <a:gradFill flip="none" rotWithShape="1">
       <a:gsLst>
         <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
         </a:gs>
         <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
           </a:schemeClr>
         </a:gs>
       </a:gsLst>
       <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
       </a:path>
       <a:tileRect/>
     </a:gradFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1273,227 +1450,158 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:pattFill prst="pct75">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
     </cs:spPr>
-    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="85000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
   <cs:dataPointMarkerLayout symbol="circle" size="6"/>
@@ -1501,10 +1609,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1520,17 +1628,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1542,20 +1649,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1566,14 +1673,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -1585,14 +1692,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1604,7 +1710,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -1612,28 +1718,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1643,28 +1737,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1673,14 +1755,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -1692,14 +1774,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1710,19 +1792,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea>
@@ -1730,7 +1803,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -1738,7 +1811,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1746,17 +1819,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1769,14 +1841,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1788,12 +1860,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1802,7 +1881,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -1817,9 +1896,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1829,7 +1907,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1837,9 +1915,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1850,16 +1928,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1867,7 +1939,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -2210,7 +2282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
